--- a/Surveys/2023/SB11/Ruskin.xlsx
+++ b/Surveys/2023/SB11/Ruskin.xlsx
@@ -166,7 +166,7 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
-        <v>45208.77294340278</v>
+        <v>45219.47815915509</v>
       </c>
       <c r="B7" s="5" t="n">
         <v>36525.0</v>
